--- a/kakatool/报销-2016.xlsx
+++ b/kakatool/报销-2016.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakatool/Desktop/卡卡兔办公/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakatool/Desktop/ly_github/images/kakatool/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12320" yWindow="540" windowWidth="29300" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="9100" yWindow="460" windowWidth="29300" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="207">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -918,26 +918,47 @@
     <t>晚上加班订餐(李庆军、李勇、张雅文)</t>
   </si>
   <si>
+    <t>1104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1117</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1119</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>中午加班订餐</t>
-  </si>
-  <si>
-    <t>1104</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1117</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1119</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭哥来北京聚餐</t>
+    <rPh sb="0" eb="1">
+      <t>guo ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bei j</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ju can</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1123</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1562,7 +1583,7 @@
   <dimension ref="A1:T136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3271,7 +3292,7 @@
         <v>195</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D65" s="12">
         <v>12</v>
@@ -3291,7 +3312,7 @@
         <v>196</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="12">
         <v>16</v>
@@ -3311,7 +3332,7 @@
         <v>197</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="12">
         <v>23</v>
@@ -3331,7 +3352,7 @@
         <v>198</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="12">
         <v>75.45</v>
@@ -3348,10 +3369,10 @@
         <v>21</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="12">
         <v>24.9</v>
@@ -3364,8 +3385,24 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C70" s="4"/>
-      <c r="D70" s="12"/>
+      <c r="A70" s="3">
+        <v>22</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="12">
+        <v>254</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C71" s="4"/>

--- a/kakatool/报销-2016.xlsx
+++ b/kakatool/报销-2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9100" yWindow="460" windowWidth="29300" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="15980" yWindow="460" windowWidth="21780" windowHeight="19700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="225">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -959,6 +959,115 @@
   </si>
   <si>
     <t>1123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水龙头</t>
+    <rPh sb="0" eb="1">
+      <t>shui long tou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1129</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐嘉炜</t>
+    <rPh sb="0" eb="1">
+      <t>xu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王闪闪</t>
+    <rPh sb="0" eb="1">
+      <t>wang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shan shan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swift权威指南，react native入门与实战</t>
+    <rPh sb="5" eb="6">
+      <t>quan wei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi nan</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ru men</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shi zhan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 加班打车（龙跃苑东四区东门-魏窑村）</t>
+  </si>
+  <si>
+    <t>加班打车（龙跃苑东四区东门-魏窑村）</t>
+  </si>
+  <si>
+    <t>加班打车（龙跃苑东四区东门-魏窑村）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行打对账单（科星西路-龙冠商务中心银座）</t>
+  </si>
+  <si>
+    <t>银行打对账单（招商银行-霍营地铁站）</t>
+  </si>
+  <si>
+    <t>专票申请增量（公司-国税局地铁）</t>
+  </si>
+  <si>
+    <t>1113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1121</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修水龙头费</t>
+    <rPh sb="0" eb="1">
+      <t>xiu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shui long t</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1129</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1583,25 +1692,27 @@
   <dimension ref="A1:T136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" style="3"/>
-    <col min="2" max="2" width="38.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11" style="5"/>
-    <col min="4" max="5" width="11" style="6"/>
-    <col min="6" max="6" width="13" style="6" customWidth="1"/>
-    <col min="7" max="8" width="11" style="5"/>
-    <col min="9" max="9" width="11" style="15"/>
-    <col min="10" max="10" width="81.83203125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="11" style="15"/>
-    <col min="12" max="12" width="11" style="16"/>
-    <col min="13" max="13" width="13.33203125" style="15" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="5"/>
+    <col min="9" max="9" width="8.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" style="16" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.83203125" style="15" customWidth="1"/>
-    <col min="16" max="17" width="11" style="17"/>
+    <col min="16" max="16" width="8.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.15">
@@ -3015,6 +3126,24 @@
         <v>179</v>
       </c>
       <c r="H51" s="15"/>
+      <c r="I51" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="K51" s="15">
+        <v>2</v>
+      </c>
+      <c r="L51" s="16">
+        <v>92.5</v>
+      </c>
+      <c r="M51" s="15">
+        <v>92.5</v>
+      </c>
+      <c r="N51" s="16" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
@@ -3405,36 +3534,164 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C71" s="4"/>
-      <c r="D71" s="12"/>
+      <c r="A71" s="3">
+        <v>23</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="12">
+        <v>43.9</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C72" s="4"/>
-      <c r="D72" s="12"/>
+      <c r="A72" s="3">
+        <v>24</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D72" s="12">
+        <v>12</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C73" s="4"/>
-      <c r="D73" s="12"/>
+      <c r="A73" s="3">
+        <v>25</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D73" s="12">
+        <v>12.7</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C74" s="4"/>
-      <c r="D74" s="12"/>
+      <c r="A74" s="3">
+        <v>26</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="12">
+        <v>9</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C75" s="4"/>
-      <c r="D75" s="12"/>
+      <c r="A75" s="3">
+        <v>27</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" s="12">
+        <v>10</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C76" s="4"/>
-      <c r="D76" s="12"/>
+      <c r="A76" s="3">
+        <v>28</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D76" s="12">
+        <v>10</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C77" s="4"/>
-      <c r="D77" s="12"/>
+      <c r="A77" s="3">
+        <v>29</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" s="12">
+        <v>12</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C78" s="4"/>
-      <c r="D78" s="12"/>
+      <c r="A78" s="3">
+        <v>30</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D78" s="12">
+        <v>20</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C79" s="4"/>

--- a/kakatool/报销-2016.xlsx
+++ b/kakatool/报销-2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15980" yWindow="460" windowWidth="21780" windowHeight="19700" tabRatio="500"/>
+    <workbookView xWindow="1080" yWindow="1240" windowWidth="36080" windowHeight="19700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="236">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -776,16 +776,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>已报销</t>
-    <rPh sb="0" eb="1">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>bao x</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>发票已寄出，已报销</t>
     <rPh sb="0" eb="1">
       <t>fa p</t>
@@ -915,9 +905,6 @@
     <t xml:space="preserve">寄ICE第三阶段发票 </t>
   </si>
   <si>
-    <t>晚上加班订餐(李庆军、李勇、张雅文)</t>
-  </si>
-  <si>
     <t>1104</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1021,10 +1008,6 @@
     <t>加班打车（龙跃苑东四区东门-魏窑村）</t>
   </si>
   <si>
-    <t>加班打车（龙跃苑东四区东门-魏窑村）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>银行打对账单（科星西路-龙冠商务中心银座）</t>
   </si>
   <si>
@@ -1068,6 +1051,100 @@
   </si>
   <si>
     <t>1129</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1130</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1124</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上加班订餐(李庆军、李勇、张雅文)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上加班订餐(李庆军、张雅文)</t>
+    <rPh sb="0" eb="1">
+      <t>wan s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia ban</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ding</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上加班订餐(李庆军、张雅文、李勇)</t>
+    <rPh sb="0" eb="1">
+      <t>wan s</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia ban</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ding</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>li y</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班打车（龙跃苑东四区东门-魏窑村）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班打车</t>
+  </si>
+  <si>
+    <t>1108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1121</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李庆军</t>
+    <rPh sb="0" eb="1">
+      <t>li</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王闪闪</t>
+    <rPh sb="0" eb="1">
+      <t>wang shan shan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐嘉炜</t>
+    <rPh sb="0" eb="1">
+      <t>xu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jia wei</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1252,7 +1329,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1331,6 +1408,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1692,7 +1786,7 @@
   <dimension ref="A1:T136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1700,12 +1794,13 @@
     <col min="1" max="1" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="5"/>
+    <col min="8" max="8" width="8.5" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="98.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" style="15" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" style="15" bestFit="1" customWidth="1"/>
@@ -2958,6 +3053,8 @@
       <c r="F45" s="6" t="s">
         <v>164</v>
       </c>
+      <c r="L45" s="15"/>
+      <c r="N45" s="15"/>
     </row>
     <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
@@ -2978,222 +3075,169 @@
       <c r="F46" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="27"/>
-    </row>
-    <row r="48" spans="1:20" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="27"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L46" s="15"/>
+      <c r="N46" s="15"/>
+    </row>
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3">
+        <v>13</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="12">
+        <v>24</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="L47" s="15"/>
+      <c r="N47" s="15"/>
+    </row>
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3">
+        <v>14</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" s="12">
+        <v>22</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="L48" s="15"/>
+      <c r="N48" s="15"/>
+    </row>
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D49" s="12">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="J49" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K49" s="15">
-        <v>6</v>
-      </c>
-      <c r="L49" s="16">
-        <v>130.30000000000001</v>
-      </c>
-      <c r="M49" s="15">
-        <v>100</v>
-      </c>
-      <c r="N49" s="16" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L49" s="15"/>
+      <c r="N49" s="15"/>
+    </row>
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D50" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="L50" s="15"/>
+      <c r="N50" s="15"/>
+    </row>
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3">
+        <v>17</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="12">
+        <v>30</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+    </row>
+    <row r="52" spans="1:17" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="J50" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="K50" s="15">
-        <v>3</v>
-      </c>
-      <c r="L50" s="16">
-        <v>97</v>
-      </c>
-      <c r="M50" s="15">
-        <v>97</v>
-      </c>
-      <c r="N50" s="16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
-        <v>3</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" s="12">
-        <v>81</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="J51" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="K51" s="15">
-        <v>2</v>
-      </c>
-      <c r="L51" s="16">
-        <v>92.5</v>
-      </c>
-      <c r="M51" s="15">
-        <v>92.5</v>
-      </c>
-      <c r="N51" s="16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
-        <v>4</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" s="12">
-        <v>37</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="H52" s="15"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
-        <v>5</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D53" s="12">
-        <v>30</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="H53" s="15"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="27"/>
+    </row>
+    <row r="53" spans="1:17" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="25"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="27"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>6</v>
       </c>
@@ -3201,7 +3245,7 @@
         <v>171</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D54" s="12">
         <v>48</v>
@@ -3212,16 +3256,40 @@
       <c r="F54" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I54" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="K54" s="15">
+        <v>6</v>
+      </c>
+      <c r="L54" s="16">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="M54" s="15">
+        <v>100</v>
+      </c>
+      <c r="N54" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="P54" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q54" s="17">
+        <v>337.05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>7</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D55" s="12">
         <v>36</v>
@@ -3232,8 +3300,32 @@
       <c r="F55" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I55" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K55" s="15">
+        <v>3</v>
+      </c>
+      <c r="L55" s="16">
+        <v>97</v>
+      </c>
+      <c r="M55" s="15">
+        <v>97</v>
+      </c>
+      <c r="N55" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="P55" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q55" s="17">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>8</v>
       </c>
@@ -3241,7 +3333,7 @@
         <v>171</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D56" s="12">
         <v>25</v>
@@ -3252,16 +3344,41 @@
       <c r="F56" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="G56" s="28"/>
+      <c r="I56" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K56" s="15">
+        <v>2</v>
+      </c>
+      <c r="L56" s="16">
+        <v>92.5</v>
+      </c>
+      <c r="M56" s="15">
+        <v>92.5</v>
+      </c>
+      <c r="N56" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="P56" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q56" s="17">
+        <v>479.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>9</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D57" s="12">
         <v>37</v>
@@ -3272,8 +3389,14 @@
       <c r="F57" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P57" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q57" s="17">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>10</v>
       </c>
@@ -3281,7 +3404,7 @@
         <v>171</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D58" s="12">
         <v>25</v>
@@ -3292,8 +3415,14 @@
       <c r="F58" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P58" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q58" s="17">
+        <v>368.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>11</v>
       </c>
@@ -3301,7 +3430,7 @@
         <v>171</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D59" s="12">
         <v>21</v>
@@ -3313,7 +3442,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>12</v>
       </c>
@@ -3321,7 +3450,7 @@
         <v>171</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D60" s="12">
         <v>24.9</v>
@@ -3333,7 +3462,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>13</v>
       </c>
@@ -3341,7 +3470,7 @@
         <v>171</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D61" s="12">
         <v>20.8</v>
@@ -3353,7 +3482,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>14</v>
       </c>
@@ -3361,7 +3490,7 @@
         <v>171</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D62" s="12">
         <v>20.8</v>
@@ -3373,15 +3502,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>15</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="12">
         <v>47.6</v>
@@ -3393,15 +3522,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>16</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="12">
         <v>72.650000000000006</v>
@@ -3413,15 +3542,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>17</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D65" s="12">
         <v>12</v>
@@ -3433,15 +3562,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <v>18</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D66" s="12">
         <v>16</v>
@@ -3453,15 +3582,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <v>19</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D67" s="12">
         <v>23</v>
@@ -3473,15 +3602,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <v>20</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="12">
         <v>75.45</v>
@@ -3493,15 +3622,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
         <v>21</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="12">
         <v>24.9</v>
@@ -3513,15 +3642,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
         <v>22</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="12">
         <v>254</v>
@@ -3533,35 +3662,35 @@
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
         <v>23</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="12">
+        <v>32.9</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D71" s="12">
-        <v>43.9</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <v>24</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D72" s="12">
         <v>12</v>
@@ -3573,15 +3702,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <v>25</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D73" s="12">
         <v>12.7</v>
@@ -3592,16 +3721,19 @@
       <c r="F73" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <v>26</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D74" s="12">
         <v>9</v>
@@ -3612,16 +3744,20 @@
       <c r="F74" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <v>27</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D75" s="12">
         <v>10</v>
@@ -3632,16 +3768,20 @@
       <c r="F75" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="32"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <v>28</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D76" s="12">
         <v>10</v>
@@ -3652,16 +3792,18 @@
       <c r="F76" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <v>29</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D77" s="12">
         <v>12</v>
@@ -3672,16 +3814,18 @@
       <c r="F77" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
         <v>30</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D78" s="12">
         <v>20</v>
@@ -3692,140 +3836,294 @@
       <c r="F78" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C79" s="4"/>
-      <c r="D79" s="12"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C80" s="4"/>
-      <c r="D80" s="12"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C81" s="4"/>
-      <c r="D81" s="12"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C82" s="4"/>
-      <c r="D82" s="12"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C83" s="4"/>
-      <c r="D83" s="12"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C84" s="4"/>
-      <c r="D84" s="12"/>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C85" s="4"/>
-      <c r="D85" s="12"/>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A79" s="3">
+        <v>31</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D79" s="12">
+        <v>336</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A80" s="3">
+        <v>32</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D80" s="12">
+        <v>41.6</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A81" s="3">
+        <v>33</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D81" s="12">
+        <v>41.6</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A82" s="3">
+        <v>34</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" s="12">
+        <v>18.2</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A83" s="3">
+        <v>35</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D83" s="12">
+        <v>16.7</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A84" s="3">
+        <v>36</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D84" s="12">
+        <v>13.2</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H84" s="30"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A85" s="3">
+        <v>37</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D85" s="12">
+        <v>17.7</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="N85" s="12"/>
+      <c r="O85" s="29"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C86" s="4"/>
       <c r="D86" s="12"/>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="N86" s="12"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C87" s="4"/>
       <c r="D87" s="12"/>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="N87" s="12"/>
+      <c r="O87" s="29"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C88" s="4"/>
       <c r="D88" s="12"/>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="N88" s="12"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C89" s="4"/>
       <c r="D89" s="12"/>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="I89" s="12"/>
+      <c r="N89" s="31"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C90" s="4"/>
       <c r="D90" s="12"/>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C91" s="4"/>
       <c r="D91" s="12"/>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C92" s="4"/>
       <c r="D92" s="12"/>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C93" s="4"/>
       <c r="D93" s="12"/>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="H93" s="12"/>
+      <c r="I93" s="29"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C94" s="4"/>
       <c r="D94" s="12"/>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="H94" s="12"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C95" s="4"/>
       <c r="D95" s="12"/>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="H95" s="12"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C96" s="4"/>
       <c r="D96" s="12"/>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="H96" s="12"/>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C97" s="4"/>
       <c r="D97" s="12"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="H97" s="12"/>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C98" s="4"/>
       <c r="D98" s="12"/>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="H98" s="12"/>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C99" s="4"/>
       <c r="D99" s="12"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="H99" s="12"/>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C100" s="4"/>
       <c r="D100" s="12"/>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="H100" s="12"/>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C101" s="4"/>
       <c r="D101" s="12"/>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="H101" s="12"/>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C102" s="4"/>
       <c r="D102" s="12"/>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="H102" s="30"/>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C103" s="4"/>
       <c r="D103" s="12"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C104" s="4"/>
       <c r="D104" s="12"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C105" s="4"/>
       <c r="D105" s="12"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C106" s="4"/>
       <c r="D106" s="12"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C107" s="4"/>
       <c r="D107" s="12"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C108" s="4"/>
       <c r="D108" s="12"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C109" s="4"/>
       <c r="D109" s="12"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C110" s="4"/>
       <c r="D110" s="12"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C111" s="4"/>
       <c r="D111" s="12"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C112" s="4"/>
       <c r="D112" s="12"/>
     </row>
@@ -3915,8 +4213,8 @@
   <mergeCells count="6">
     <mergeCell ref="A33:Q33"/>
     <mergeCell ref="A16:Q16"/>
-    <mergeCell ref="A47:Q47"/>
-    <mergeCell ref="A48:Q48"/>
+    <mergeCell ref="A52:Q52"/>
+    <mergeCell ref="A53:Q53"/>
     <mergeCell ref="A34:Q34"/>
     <mergeCell ref="A17:Q17"/>
   </mergeCells>

--- a/kakatool/报销-2016.xlsx
+++ b/kakatool/报销-2016.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1240" windowWidth="36080" windowHeight="19700" tabRatio="500"/>
+    <workbookView xWindow="1200" yWindow="1240" windowWidth="36080" windowHeight="19700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="246">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -925,10 +925,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>中午加班订餐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>郭哥来北京聚餐</t>
     <rPh sb="0" eb="1">
       <t>guo ge</t>
@@ -1008,12 +1004,6 @@
     <t>加班打车（龙跃苑东四区东门-魏窑村）</t>
   </si>
   <si>
-    <t>银行打对账单（科星西路-龙冠商务中心银座）</t>
-  </si>
-  <si>
-    <t>银行打对账单（招商银行-霍营地铁站）</t>
-  </si>
-  <si>
     <t>专票申请增量（公司-国税局地铁）</t>
   </si>
   <si>
@@ -1145,6 +1135,87 @@
     <rPh sb="1" eb="2">
       <t>jia wei</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩之云3.0，ICE邮寄发票</t>
+  </si>
+  <si>
+    <t>1130</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武旭</t>
+    <rPh sb="0" eb="1">
+      <t>wu xu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一幅画，UI设计</t>
+    <rPh sb="0" eb="1">
+      <t>yi fu hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>she ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王霞</t>
+    <rPh sb="0" eb="1">
+      <t>wang xia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书</t>
+    <rPh sb="0" eb="1">
+      <t>tu shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武旭</t>
+    <rPh sb="0" eb="1">
+      <t>wu x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王霞</t>
+    <rPh sb="0" eb="1">
+      <t>wang x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池</t>
+    <rPh sb="0" eb="1">
+      <t>dian chi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1125</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午加班订餐（周六）</t>
+    <rPh sb="7" eb="8">
+      <t>zhou l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行打对账单（科星西路-龙冠商务中心银座）（打车）</t>
+    <rPh sb="22" eb="23">
+      <t>da che</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行打对账单（招商银行-霍营地铁站）（打车）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1329,7 +1400,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1392,6 +1463,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1408,23 +1493,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1783,10 +1851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T136"/>
+  <dimension ref="A1:T126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2212,44 +2280,44 @@
       <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="24"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="30"/>
     </row>
     <row r="17" spans="1:17" ht="71" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="24"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="30"/>
     </row>
     <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
@@ -2624,47 +2692,47 @@
       <c r="Q32" s="19"/>
     </row>
     <row r="33" spans="1:20" s="20" customFormat="1" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
     </row>
     <row r="34" spans="1:20" s="21" customFormat="1" ht="73" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
     </row>
     <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
@@ -3185,8 +3253,8 @@
       <c r="F51" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -3194,68 +3262,50 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
     </row>
     <row r="52" spans="1:17" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="27"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="33"/>
     </row>
     <row r="53" spans="1:17" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="25"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="27"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="33"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
-        <v>6</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D54" s="12">
-        <v>48</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>158</v>
-      </c>
       <c r="I54" s="15" t="s">
         <v>181</v>
       </c>
@@ -3275,18 +3325,18 @@
         <v>158</v>
       </c>
       <c r="P54" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q54" s="17">
-        <v>337.05</v>
+        <v>360.05</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>184</v>
@@ -3322,12 +3372,12 @@
         <v>157</v>
       </c>
       <c r="Q55" s="17">
-        <v>399</v>
+        <v>508.5</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>171</v>
@@ -3344,12 +3394,12 @@
       <c r="F56" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G56" s="28"/>
+      <c r="G56" s="22"/>
       <c r="I56" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="J56" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="J56" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="K56" s="15">
         <v>2</v>
@@ -3372,10 +3422,10 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>186</v>
@@ -3389,8 +3439,26 @@
       <c r="F57" s="6" t="s">
         <v>164</v>
       </c>
+      <c r="I57" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K57" s="15">
+        <v>2</v>
+      </c>
+      <c r="L57" s="16">
+        <v>100</v>
+      </c>
+      <c r="M57" s="15">
+        <v>100</v>
+      </c>
+      <c r="N57" s="16" t="s">
+        <v>158</v>
+      </c>
       <c r="P57" s="17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q57" s="17">
         <v>92.5</v>
@@ -3398,7 +3466,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>171</v>
@@ -3415,8 +3483,23 @@
       <c r="F58" s="6" t="s">
         <v>164</v>
       </c>
+      <c r="I58" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L58" s="16">
+        <v>109.5</v>
+      </c>
+      <c r="M58" s="15">
+        <v>100</v>
+      </c>
+      <c r="N58" s="16" t="s">
+        <v>158</v>
+      </c>
       <c r="P58" s="17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q58" s="17">
         <v>368.9</v>
@@ -3424,7 +3507,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>171</v>
@@ -3441,10 +3524,16 @@
       <c r="F59" s="6" t="s">
         <v>164</v>
       </c>
+      <c r="P59" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q59" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>171</v>
@@ -3461,10 +3550,16 @@
       <c r="F60" s="6" t="s">
         <v>164</v>
       </c>
+      <c r="P60" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q60" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>171</v>
@@ -3484,7 +3579,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>171</v>
@@ -3504,10 +3599,10 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>192</v>
@@ -3524,10 +3619,10 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>193</v>
@@ -3542,672 +3637,669 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="D65" s="12">
+        <v>41.6</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" s="3">
         <v>12</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A66" s="3">
-        <v>18</v>
-      </c>
       <c r="B66" s="3" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="D66" s="12">
-        <v>16</v>
+        <v>41.6</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="D67" s="12">
-        <v>23</v>
+        <v>18.2</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="D68" s="12">
-        <v>75.45</v>
+        <v>16.7</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="D69" s="12">
-        <v>24.9</v>
+        <v>13.2</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="12">
+        <v>17.7</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D71" s="27">
+        <f>SUM(D55:D70)</f>
+        <v>479.75</v>
+      </c>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" s="3">
+        <v>1</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D70" s="12">
-        <v>254</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F70" s="6" t="s">
+      <c r="C72" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" s="12">
+        <v>32.9</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A71" s="3">
-        <v>23</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C71" s="4" t="s">
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" s="3">
+        <v>2</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D73" s="12">
+        <v>336</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D71" s="12">
-        <v>32.9</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F71" s="6" t="s">
+      <c r="F73" s="6" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A72" s="3">
-        <v>24</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D72" s="12">
-        <v>12</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A73" s="3">
-        <v>25</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D73" s="12">
-        <v>12.7</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="N73" s="12"/>
       <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A74" s="3">
-        <v>26</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D74" s="12">
-        <v>9</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="M74" s="12"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D74" s="27">
+        <f>SUM(D72:D73)</f>
+        <v>368.9</v>
+      </c>
       <c r="N74" s="12"/>
       <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="D75" s="12">
-        <v>10</v>
+        <v>109.5</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="M75" s="12"/>
+        <v>158</v>
+      </c>
       <c r="N75" s="12"/>
       <c r="O75" s="12"/>
-      <c r="P75" s="32"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="D76" s="12">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>164</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="H76" s="12"/>
       <c r="N76" s="12"/>
       <c r="O76" s="12"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D77" s="12">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>164</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="H77" s="12"/>
       <c r="N77" s="12"/>
       <c r="O77" s="12"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A78" s="3">
-        <v>30</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D78" s="12">
-        <v>20</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>164</v>
-      </c>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D78" s="27">
+        <f>SUM(D75:D77)</f>
+        <v>411.5</v>
+      </c>
+      <c r="H78" s="24"/>
       <c r="N78" s="12"/>
       <c r="O78" s="12"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="D79" s="12">
-        <v>336</v>
+        <v>23</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>158</v>
       </c>
       <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D80" s="12">
-        <v>41.6</v>
+        <v>12</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D81" s="12">
-        <v>41.6</v>
+        <v>12.7</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D82" s="12">
-        <v>18.2</v>
+        <v>9</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>164</v>
       </c>
       <c r="H82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I82" s="12"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="D83" s="12">
-        <v>16.7</v>
+        <v>10</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>164</v>
       </c>
       <c r="H83" s="12"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I83" s="23"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="D84" s="12">
-        <v>13.2</v>
+        <v>10</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H84" s="30"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H84" s="12"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D85" s="12">
-        <v>17.7</v>
+        <v>12</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="N85" s="12"/>
-      <c r="O85" s="29"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C86" s="4"/>
-      <c r="D86" s="12"/>
-      <c r="N86" s="12"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C87" s="4"/>
-      <c r="D87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="29"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C88" s="4"/>
-      <c r="D88" s="12"/>
-      <c r="N88" s="12"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C89" s="4"/>
-      <c r="D89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="N89" s="31"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C90" s="4"/>
-      <c r="D90" s="12"/>
+      <c r="H85" s="12"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86" s="3">
+        <v>8</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D86" s="12">
+        <v>20</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H86" s="12"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87" s="3">
+        <v>9</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D87" s="12">
+        <v>12</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H87" s="12"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A88" s="3">
+        <v>10</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" s="12">
+        <v>16</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H88" s="12"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89" s="3">
+        <v>11</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D89" s="12">
+        <v>23</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H89" s="12"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" s="3">
+        <v>12</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D90" s="12">
+        <v>75.45</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C91" s="4"/>
-      <c r="D91" s="12"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A91" s="3">
+        <v>13</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D91" s="12">
+        <v>24.9</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C92" s="4"/>
-      <c r="D92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D92" s="27">
+        <f>SUM(D79:D91)</f>
+        <v>260.04999999999995</v>
+      </c>
+      <c r="H92" s="24"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C93" s="4"/>
       <c r="D93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="29"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C94" s="4"/>
       <c r="D94" s="12"/>
-      <c r="H94" s="12"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C95" s="4"/>
       <c r="D95" s="12"/>
-      <c r="H95" s="12"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C96" s="4"/>
       <c r="D96" s="12"/>
-      <c r="H96" s="12"/>
-    </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C97" s="4"/>
       <c r="D97" s="12"/>
-      <c r="H97" s="12"/>
-    </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C98" s="4"/>
       <c r="D98" s="12"/>
-      <c r="H98" s="12"/>
-    </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C99" s="4"/>
       <c r="D99" s="12"/>
-      <c r="H99" s="12"/>
-    </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C100" s="4"/>
       <c r="D100" s="12"/>
-      <c r="H100" s="12"/>
-    </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C101" s="4"/>
       <c r="D101" s="12"/>
-      <c r="H101" s="12"/>
-    </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C102" s="4"/>
       <c r="D102" s="12"/>
-      <c r="H102" s="30"/>
-    </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C103" s="4"/>
       <c r="D103" s="12"/>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C104" s="4"/>
       <c r="D104" s="12"/>
     </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C105" s="4"/>
       <c r="D105" s="12"/>
     </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C106" s="4"/>
       <c r="D106" s="12"/>
     </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C107" s="4"/>
       <c r="D107" s="12"/>
     </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C108" s="4"/>
       <c r="D108" s="12"/>
     </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C109" s="4"/>
       <c r="D109" s="12"/>
     </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C110" s="4"/>
       <c r="D110" s="12"/>
     </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C111" s="4"/>
       <c r="D111" s="12"/>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C112" s="4"/>
       <c r="D112" s="12"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C113" s="4"/>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D113" s="12"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C114" s="4"/>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D114" s="12"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C115" s="4"/>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D115" s="12"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C116" s="4"/>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D116" s="12"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C117" s="4"/>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D117" s="12"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C118" s="4"/>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D118" s="12"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C119" s="4"/>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D119" s="12"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C120" s="4"/>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D120" s="12"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C121" s="4"/>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D121" s="12"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C122" s="4"/>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D122" s="12"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D123" s="12"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D124" s="12"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D125" s="12"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D126" s="12"/>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D127" s="12"/>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D128" s="12"/>
-    </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D129" s="12"/>
-    </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D130" s="12"/>
-    </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D131" s="12"/>
-    </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D132" s="12"/>
-    </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D133" s="12"/>
-    </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D134" s="12"/>
-    </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D135" s="12"/>
-    </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D136" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/kakatool/报销-2016.xlsx
+++ b/kakatool/报销-2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1240" windowWidth="36080" windowHeight="19700" tabRatio="500"/>
+    <workbookView xWindow="1180" yWindow="1240" windowWidth="36080" windowHeight="19700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="248">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1216,6 +1216,13 @@
   </si>
   <si>
     <t>银行打对账单（招商银行-霍营地铁站）（打车）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递费（收单位结算卡）</t>
+  </si>
+  <si>
+    <t>1123</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1854,7 +1861,7 @@
   <dimension ref="A1:T126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3328,7 +3335,7 @@
         <v>230</v>
       </c>
       <c r="Q54" s="17">
-        <v>360.05</v>
+        <v>375.05</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.15">
@@ -4172,16 +4179,32 @@
       <c r="H91" s="12"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C92" s="4"/>
-      <c r="D92" s="27">
-        <f>SUM(D79:D91)</f>
-        <v>260.04999999999995</v>
+      <c r="A92" s="3">
+        <v>14</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D92" s="12">
+        <v>15</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="H92" s="24"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C93" s="4"/>
-      <c r="D93" s="12"/>
+      <c r="D93" s="27">
+        <f>SUM(D79:D92)</f>
+        <v>275.04999999999995</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C94" s="4"/>

--- a/kakatool/报销-2016.xlsx
+++ b/kakatool/报销-2016.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakatool/Desktop/ly_github/images/kakatool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ly/Desktop/images/kakatool/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1240" windowWidth="36080" windowHeight="19700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="249">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1223,6 +1223,16 @@
   </si>
   <si>
     <t>1123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已报销</t>
+    <rPh sb="0" eb="1">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>bao xiao</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1407,7 +1417,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1501,6 +1511,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1861,7 +1880,7 @@
   <dimension ref="A1:T126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3312,7 +3331,7 @@
       <c r="P53" s="32"/>
       <c r="Q53" s="33"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="I54" s="15" t="s">
         <v>181</v>
       </c>
@@ -3338,7 +3357,7 @@
         <v>375.05</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -3382,7 +3401,7 @@
         <v>508.5</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>2</v>
       </c>
@@ -3427,7 +3446,7 @@
         <v>479.75</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>3</v>
       </c>
@@ -3471,7 +3490,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>4</v>
       </c>
@@ -3512,7 +3531,7 @@
         <v>368.9</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>5</v>
       </c>
@@ -3538,7 +3557,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>6</v>
       </c>
@@ -3564,7 +3583,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>7</v>
       </c>
@@ -3584,7 +3603,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>8</v>
       </c>
@@ -3604,7 +3623,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>9</v>
       </c>
@@ -3624,7 +3643,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>10</v>
       </c>
@@ -3644,7 +3663,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>11</v>
       </c>
@@ -3664,7 +3683,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <v>12</v>
       </c>
@@ -3684,7 +3703,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <v>13</v>
       </c>
@@ -3704,7 +3723,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <v>14</v>
       </c>
@@ -3724,7 +3743,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
         <v>15</v>
       </c>
@@ -3744,7 +3763,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
         <v>16</v>
       </c>
@@ -3764,7 +3783,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="D71" s="27">
         <f>SUM(D55:D70)</f>
         <v>479.75</v>
@@ -3772,7 +3791,7 @@
       <c r="N71" s="12"/>
       <c r="O71" s="12"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <v>1</v>
       </c>
@@ -3794,7 +3813,7 @@
       <c r="N72" s="12"/>
       <c r="O72" s="12"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <v>2</v>
       </c>
@@ -3816,7 +3835,7 @@
       <c r="N73" s="12"/>
       <c r="O73" s="12"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="D74" s="27">
         <f>SUM(D72:D73)</f>
         <v>368.9</v>
@@ -3824,7 +3843,7 @@
       <c r="N74" s="12"/>
       <c r="O74" s="12"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <v>1</v>
       </c>
@@ -3846,7 +3865,7 @@
       <c r="N75" s="12"/>
       <c r="O75" s="12"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <v>2</v>
       </c>
@@ -3869,7 +3888,7 @@
       <c r="N76" s="12"/>
       <c r="O76" s="12"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <v>3</v>
       </c>
@@ -3892,7 +3911,7 @@
       <c r="N77" s="12"/>
       <c r="O77" s="12"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="D78" s="27">
         <f>SUM(D75:D77)</f>
         <v>411.5</v>
@@ -3901,7 +3920,7 @@
       <c r="N78" s="12"/>
       <c r="O78" s="12"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
         <v>1</v>
       </c>
@@ -3922,7 +3941,7 @@
       </c>
       <c r="N79" s="12"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <v>2</v>
       </c>
@@ -3944,7 +3963,7 @@
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <v>3</v>
       </c>
@@ -3966,7 +3985,7 @@
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <v>4</v>
       </c>
@@ -3988,7 +4007,7 @@
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <v>5</v>
       </c>
@@ -4010,7 +4029,7 @@
       <c r="H83" s="12"/>
       <c r="I83" s="23"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>6</v>
       </c>
@@ -4031,7 +4050,7 @@
       </c>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
         <v>7</v>
       </c>
@@ -4052,7 +4071,7 @@
       </c>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>8</v>
       </c>
@@ -4073,7 +4092,7 @@
       </c>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <v>9</v>
       </c>
@@ -4094,7 +4113,7 @@
       </c>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
         <v>10</v>
       </c>
@@ -4115,7 +4134,7 @@
       </c>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <v>11</v>
       </c>
@@ -4136,7 +4155,7 @@
       </c>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
         <v>12</v>
       </c>
@@ -4157,7 +4176,7 @@
       </c>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
         <v>13</v>
       </c>
@@ -4178,7 +4197,7 @@
       </c>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
         <v>14</v>
       </c>
@@ -4199,16 +4218,22 @@
       </c>
       <c r="H92" s="24"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="C93" s="4"/>
       <c r="D93" s="27">
         <f>SUM(D79:D92)</f>
         <v>275.04999999999995</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C94" s="4"/>
-      <c r="D94" s="12"/>
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="36"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C95" s="4"/>
@@ -4325,7 +4350,8 @@
       <c r="D126" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A94:F94"/>
     <mergeCell ref="A33:Q33"/>
     <mergeCell ref="A16:Q16"/>
     <mergeCell ref="A52:Q52"/>
